--- a/2_Sort/2_sort.xlsx
+++ b/2_Sort/2_sort.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/2_Sort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614011EC-400E-5344-920F-779554882D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06F7E3-3509-5C4C-9CA3-9B43C99A9E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{F4077285-464D-8346-9B09-CB792923AE4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F4077285-464D-8346-9B09-CB792923AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$D$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$D$52:$D$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$E$51</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Лист1!$E$52:$E$61</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Лист1!$F$51</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Лист1!$F$52:$F$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$C$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$C$52:$C$61</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Лист1!$C$51</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Лист1!$C$52:$C$61</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Лист1!$D$51</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Лист1!$D$52:$D$61</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Лист1!$E$51</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Лист1!$E$52:$E$61</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Лист1!$F$51</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Лист1!$F$52:$F$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Buble</t>
   </si>
@@ -41,6 +59,9 @@
   </si>
   <si>
     <t>selection</t>
+  </si>
+  <si>
+    <t>buble</t>
   </si>
 </sst>
 </file>
@@ -507,7 +528,7 @@
         <c:axId val="1224825520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -719,44 +740,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость от степени отсортированности</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> массива</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32612489063867017"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -795,6 +778,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>buble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -853,34 +847,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,13 +882,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0907-DE4A-A9C2-0196DA8AE3A8}"/>
+              <c16:uniqueId val="{00000000-5F6B-FD44-B302-A5B6F5EAA682}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -988,13 +993,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0907-DE4A-A9C2-0196DA8AE3A8}"/>
+              <c16:uniqueId val="{00000001-5F6B-FD44-B302-A5B6F5EAA682}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1088,7 +1104,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0907-DE4A-A9C2-0196DA8AE3A8}"/>
+              <c16:uniqueId val="{00000002-5F6B-FD44-B302-A5B6F5EAA682}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1101,11 +1117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1230148848"/>
-        <c:axId val="1251591984"/>
+        <c:axId val="1657997376"/>
+        <c:axId val="1657999024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1230148848"/>
+        <c:axId val="1657997376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1164,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251591984"/>
+        <c:crossAx val="1657999024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1156,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251591984"/>
+        <c:axId val="1657999024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1223,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1230148848"/>
+        <c:crossAx val="1657997376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2403,16 +2419,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2439,23 +2455,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA13212-7B04-A44B-8E19-CFC146A4F5F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E5470F-3792-2A44-B17D-53717B4FC3B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B6648-1C90-6E47-B4BB-01E34A25F144}">
   <dimension ref="B2:AV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3789,12 +3805,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52">
         <v>6</v>
@@ -3808,7 +3835,7 @@
         <v>-0.8</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -3825,7 +3852,7 @@
         <v>-0.6</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -3839,7 +3866,7 @@
         <v>-0.4</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>7</v>
@@ -3853,7 +3880,7 @@
         <v>-0.2</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -3867,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -3881,7 +3908,7 @@
         <v>0.2</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3895,7 +3922,7 @@
         <v>0.4</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3909,7 +3936,7 @@
         <v>0.6</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3923,7 +3950,7 @@
         <v>0.8</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
